--- a/Experiment 5 - Outdoors 5GHz/Outdoors experiment 5GHz.xlsx
+++ b/Experiment 5 - Outdoors 5GHz/Outdoors experiment 5GHz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/CE301 - Individual project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/GitLab/Experiment 5 - Outdoors 5GHz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{4644C477-6F57-486E-8FE9-B3E49BBB72A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2AB1E942-33BC-4B39-8029-F928C22C4825}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{4644C477-6F57-486E-8FE9-B3E49BBB72A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E558A27-A802-4CF3-8120-1CDB90A5DAFA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{854CA194-FEA3-4FE1-B903-D0461776F831}"/>
   </bookViews>
@@ -19,12 +19,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$3</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$4:$B$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$4:$A$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$4:$B$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,10 +143,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -190,7 +184,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{ACDA0792-4E3A-4C08-971B-0E55A4D18E1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Signal strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -880,6 +874,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{810A69A5-FEC4-4607-80F6-267CF2AD56D7}" name="Table1" displayName="Table1" ref="A3:B15" totalsRowShown="0">
+  <autoFilter ref="A3:B15" xr:uid="{F0B2CDAE-4636-45F6-BBD2-4AE74A1F533F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3EEF3480-0FAC-4307-B9B1-A638A836F748}" name="Area"/>
+    <tableColumn id="2" xr3:uid="{C4713ED8-FD91-4976-AD60-F575D118FAA4}" name="Signal strength (dBm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,13 +1190,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1303,5 +1311,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>